--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trading03\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12330"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">Nombre                               </t>
   </si>
@@ -107,12 +112,39 @@
   </si>
   <si>
     <t xml:space="preserve">INCORP CASA DE BOLSA, C.A.                                                                             </t>
+  </si>
+  <si>
+    <t>KOI INVEST CASA DE BOLSA, C.A.</t>
+  </si>
+  <si>
+    <t>GRUPO INTERAVAL CASAS DE BOLSA C.A.</t>
+  </si>
+  <si>
+    <t>KAIROS VALORES CASA DE BOLSA C.A.</t>
+  </si>
+  <si>
+    <t>GO SOCIEDAD DE CORRETAJE DE TÍTULOS VALORES C.A.</t>
+  </si>
+  <si>
+    <t>PALOGRANDE CASA DE BOLSA C.A.</t>
+  </si>
+  <si>
+    <t>BNCI CASA DE BOLSA C.A.</t>
+  </si>
+  <si>
+    <t>SUMA SOCIEDAD DE CORRETAJE DE VALORES C.A.</t>
+  </si>
+  <si>
+    <t>FINTECH VALORES CASAS DE BOLSA S.A.</t>
+  </si>
+  <si>
+    <t>WORLD TRADING CASA DE BOLSA C.A.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -141,12 +173,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -174,9 +212,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -194,6 +229,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -255,7 +293,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,7 +328,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -534,415 +572,415 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>780</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>49573216168</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>0.24940000000000001</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>49573216168</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>567</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>39265776633</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>0.1976</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>39265776633</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>520</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>32036511034</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>0.16120000000000001</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>32036511034</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="2">
         <v>384</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>21723784455</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>0.10929999999999999</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>21723784455</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2">
         <v>1014</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>12618421500</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>6.3500000000000001E-2</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>12618421500</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>235</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>11009530549</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>5.5399999999999998E-2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>11009530549</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>418</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>10826111011</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>5.45E-2</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>10826111011</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>21</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>5910709583</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>2.9700000000000001E-2</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>5910709583</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="2">
         <v>461</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>4250641562</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>4250641562</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="2">
         <v>301</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>3274018545</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>3274018545</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="2">
         <v>264</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>2007694082</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>1.01E-2</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>2007694082</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="2">
         <v>340</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>1700265470</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>8.6E-3</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>1700265470</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="2">
         <v>76</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>1196749890</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>1196749890</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="2">
         <v>575</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>1019615953</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>1019615953</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="2">
         <v>96</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>812346918</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>812346918</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="2">
         <v>68</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>514558055</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>514558055</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="2">
         <v>180</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>289883328</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>1.5E-3</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>289883328</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="2">
         <v>57</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>207741910</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>1E-3</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>207741910</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="2">
         <v>62</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>168924455</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>168924455</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="2">
         <v>19</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>113799713</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>113799713</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="2">
         <v>17</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>99823500</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>99823500</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="2">
         <v>32</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>66508000</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>66508000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="2">
         <v>16</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>31392551</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>31392551</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="2">
         <v>11</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>30524000</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>30524000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2">
@@ -951,43 +989,196 @@
       <c r="C26" s="1">
         <v>0</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>0</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B36" s="2">
         <v>7950</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C36" s="4">
         <v>198748548862</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D36" s="5">
         <v>1</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E36" s="4">
         <v>198748548862</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+    <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
